--- a/data.xlsx
+++ b/data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgewa\Documents\MSK\Project\3d-scatter-plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED318AC-FDC8-4083-AF9E-617353AD5A0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D8A590-4860-48C1-B66C-351F408566FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="18216" windowHeight="12240"/>
+    <workbookView minimized="1" xWindow="492" yWindow="672" windowWidth="15456" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,10 +958,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgewa\Documents\MSK\Project\3d-scatter-plot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D8A590-4860-48C1-B66C-351F408566FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C57B1F6-D151-4E98-8126-35CDC741E0B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="492" yWindow="672" windowWidth="15456" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>x</t>
   </si>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t>T. Jones</t>
+  </si>
+  <si>
+    <t>id012</t>
+  </si>
+  <si>
+    <t>L. Mendes</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>id013</t>
+  </si>
+  <si>
+    <t>C. Glan</t>
+  </si>
+  <si>
+    <t>id014</t>
+  </si>
+  <si>
+    <t>J. Gray</t>
   </si>
 </sst>
 </file>
@@ -959,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,6 +1336,93 @@
         <v>22</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
